--- a/biology/Zoologie/Canard_de_Rouen_anglais/Canard_de_Rouen_anglais.xlsx
+++ b/biology/Zoologie/Canard_de_Rouen_anglais/Canard_de_Rouen_anglais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Canard de Rouen anglais, anciennement appelé Canard de Rouen foncé, est une race de canard issue d'une sélection anglaise à partir du Canard de Rouen français, originaire des alentours de Rouen en Haut-Normandie. Son standard a été reconnu en 1865.
 Cette race est bien représentée à l'étranger, bien plus que le Canard de Rouen français.
@@ -512,11 +524,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canard de Rouen anglais diffère du Canard de Rouen français par son coloris plus sombre (variété sauvage, le Canard de Rouen français est de variété truitée), une forme plus rectangulaire mais aussi une quille très développée (repli de peau s'étendant de la poitrine à l'arrière-train; absente chez le Canard de Rouen français). Il se déplace plus difficilement et plus lentement. La cane pond des œufs de 80g minimum à coquille verdâtre avec des nuances diverses (blanchâtres, bleuâtres). Le canard peut atteindre une masse de plus de 5 kg et la cane peut dépasser les 4,5 kg.
-Standard
-Aspect général :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Canard_de_Rouen_anglais</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canard_de_Rouen_anglais</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspect général :
 Gros canard fermier, de forme rectangulaire et au port horizontal, avec quille bien développée mais ne touchant pas le sol.
 Caractéristiques du canard et de la cane :
 Corps : long, large et profond, forme rectangulaire, port horizontal.
